--- a/biology/Botanique/Clos_de_Villeneuve/Clos_de_Villeneuve.xlsx
+++ b/biology/Botanique/Clos_de_Villeneuve/Clos_de_Villeneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le clos de Villeneuve est une bastide provençale situé à Valensole dans le département des Alpes-de-Haute-Provence. Les jardins du clos sont reconnus Jardin remarquable.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bastide du Clos a été construite par Jean Baptiste de Villeneuve, seigneur d’Esclapon, durant la première partie du XVIIIe siècle.
 La famille de Villeneuve-Esclapon qui siège au domaine du Clos. Le plus illustre est Pierre Charles Silvestre de Villeneuve, né à Valensole en 1765. Rappelons que Napoléon lui attribue le titre de vice-amiral et lui confie le commandement suprême de la flotte franco-espagnole en 1804. Très attaché à ses terres, Villeneuve administre son domaine du clos entre deux campagnes en mer. Il eut un destin tragique avec la terrible défaite de Trafalgar dont il fut tenu pour responsable.
-Le clos de Villeneuve a été inscrit partiellement[note 1] au titre des monuments historiques par arrêté du 1er février 2018[1].
+Le clos de Villeneuve a été inscrit partiellement[note 1] au titre des monuments historiques par arrêté du 1er février 2018.
 </t>
         </is>
       </c>
